--- a/predicted_result.xlsx
+++ b/predicted_result.xlsx
@@ -423,121 +423,121 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.554049968719482</v>
+        <v>5.780831813812256</v>
       </c>
       <c r="B2" t="n">
-        <v>4.03162956237793</v>
+        <v>3.289688348770142</v>
       </c>
       <c r="C2" t="n">
-        <v>1.021281599998474</v>
+        <v>0.9984269142150879</v>
       </c>
       <c r="D2" t="n">
-        <v>8.429013252258301</v>
+        <v>11.37645721435547</v>
       </c>
       <c r="E2" t="n">
-        <v>44.60273742675781</v>
+        <v>56.6711311340332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.567578792572021</v>
+        <v>5.886767387390137</v>
       </c>
       <c r="B3" t="n">
-        <v>4.027238368988037</v>
+        <v>3.343163967132568</v>
       </c>
       <c r="C3" t="n">
-        <v>1.021281599998474</v>
+        <v>0.9984269142150879</v>
       </c>
       <c r="D3" t="n">
-        <v>8.410598754882812</v>
+        <v>11.25984191894531</v>
       </c>
       <c r="E3" t="n">
-        <v>44.6273193359375</v>
+        <v>56.37979507446289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.537471771240234</v>
+        <v>5.870709419250488</v>
       </c>
       <c r="B4" t="n">
-        <v>4.024948120117188</v>
+        <v>3.419963598251343</v>
       </c>
       <c r="C4" t="n">
-        <v>1.021281599998474</v>
+        <v>0.9984269142150879</v>
       </c>
       <c r="D4" t="n">
-        <v>8.389877319335938</v>
+        <v>11.14657306671143</v>
       </c>
       <c r="E4" t="n">
-        <v>44.65332794189453</v>
+        <v>56.11903381347656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.474361896514893</v>
+        <v>5.675092697143555</v>
       </c>
       <c r="B5" t="n">
-        <v>4.024214267730713</v>
+        <v>3.5101158618927</v>
       </c>
       <c r="C5" t="n">
-        <v>1.021281599998474</v>
+        <v>0.9984269142150879</v>
       </c>
       <c r="D5" t="n">
-        <v>8.367534637451172</v>
+        <v>11.047043800354</v>
       </c>
       <c r="E5" t="n">
-        <v>44.67811965942383</v>
+        <v>55.91158676147461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.406172275543213</v>
+        <v>5.318474769592285</v>
       </c>
       <c r="B6" t="n">
-        <v>4.024240970611572</v>
+        <v>3.596995115280151</v>
       </c>
       <c r="C6" t="n">
-        <v>1.021281599998474</v>
+        <v>0.9984269142150879</v>
       </c>
       <c r="D6" t="n">
-        <v>8.34461498260498</v>
+        <v>10.95672035217285</v>
       </c>
       <c r="E6" t="n">
-        <v>44.69850921630859</v>
+        <v>55.77219390869141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.344047069549561</v>
+        <v>4.926073551177979</v>
       </c>
       <c r="B7" t="n">
-        <v>4.024270057678223</v>
+        <v>3.665252447128296</v>
       </c>
       <c r="C7" t="n">
-        <v>1.021281599998474</v>
+        <v>0.9984269142150879</v>
       </c>
       <c r="D7" t="n">
-        <v>8.322551727294922</v>
+        <v>10.84850311279297</v>
       </c>
       <c r="E7" t="n">
-        <v>44.71087646484375</v>
+        <v>55.70305252075195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.301255226135254</v>
+        <v>4.649093627929688</v>
       </c>
       <c r="B8" t="n">
-        <v>4.024297714233398</v>
+        <v>3.711680173873901</v>
       </c>
       <c r="C8" t="n">
-        <v>1.021281599998474</v>
+        <v>0.9984269142150879</v>
       </c>
       <c r="D8" t="n">
-        <v>8.30317497253418</v>
+        <v>10.73489761352539</v>
       </c>
       <c r="E8" t="n">
-        <v>44.71123123168945</v>
+        <v>55.69132995605469</v>
       </c>
     </row>
   </sheetData>
